--- a/Track Reports/dhl_clean_report.xlsx
+++ b/Track Reports/dhl_clean_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="136">
   <si>
     <t>Carrier</t>
   </si>
@@ -136,6 +136,12 @@
     <t>DSD146918</t>
   </si>
   <si>
+    <t>DSD147070</t>
+  </si>
+  <si>
+    <t>DSD147446</t>
+  </si>
+  <si>
     <t>DSD147652</t>
   </si>
   <si>
@@ -178,6 +184,12 @@
     <t>3746393210</t>
   </si>
   <si>
+    <t>5581782161</t>
+  </si>
+  <si>
+    <t>1465781925</t>
+  </si>
+  <si>
     <t>1465773864</t>
   </si>
   <si>
@@ -217,6 +229,9 @@
     <t>Gatwick</t>
   </si>
   <si>
+    <t>Belfast</t>
+  </si>
+  <si>
     <t>Maidstone</t>
   </si>
   <si>
@@ -283,6 +298,9 @@
     <t>11:02</t>
   </si>
   <si>
+    <t>12:06</t>
+  </si>
+  <si>
     <t>13:17</t>
   </si>
   <si>
@@ -337,49 +355,61 @@
     <t>https://www.dhl.com/es-en/home/tracking/tracking-express.html?submit=1&amp;tracking-id=3746393210</t>
   </si>
   <si>
+    <t>https://www.dhl.com/es-en/home/tracking/tracking-express.html?submit=1&amp;tracking-id=5581782161</t>
+  </si>
+  <si>
+    <t>https://www.dhl.com/es-en/home/tracking/tracking-express.html?submit=1&amp;tracking-id=1465781925</t>
+  </si>
+  <si>
     <t>https://www.dhl.com/es-en/home/tracking/tracking-express.html?submit=1&amp;tracking-id=1465773864</t>
   </si>
   <si>
-    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=0qUfdkQjNVkj7Eac%2FPDteQ%3D%3D&amp;pudate=xAQLdRa0lj26sAqUrYvYWw%3D%3D&amp;appuid=6ZkdIugjX5J4XV4q4Jkr%2FA%3D%3D&amp;language=en&amp;country=G0</t>
-  </si>
-  <si>
-    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=NhUIhUr1oOq2UJElT3TvWA%3D%3D&amp;pudate=pdjLzrAnetnwSrZ4Ps2DpA%3D%3D&amp;appuid=fwKHqdnoY1fgRqNBMgtwzQ%3D%3D&amp;language=en&amp;country=G0</t>
-  </si>
-  <si>
-    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=MVXOTo2eH4175SE%2BfZa%2Fzw%3D%3D&amp;pudate=rHoDq7O4r85zgzGc3Y%2FHhA%3D%3D&amp;appuid=0uMmloGfo9K6SFYaXH%2Bkeg%3D%3D&amp;language=en&amp;country=G0</t>
-  </si>
-  <si>
-    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=z9pfno%2B05UJu3vF7DqHeVA%3D%3D&amp;pudate=yX1X63eZ8GG2VRH4QSZvGQ%3D%3D&amp;appuid=LEuvC%2FkgCCCHvXUAXOdoIg%3D%3D&amp;language=en&amp;country=G0</t>
-  </si>
-  <si>
-    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=S9MxcGgQB6ijeqOavgzS6Q%3D%3D&amp;pudate=n2vaQ%2FboGScToIzwni2%2BaQ%3D%3D&amp;appuid=3w6iUdhLrWxeA5w0ebGdvQ%3D%3D&amp;language=en&amp;country=G0</t>
-  </si>
-  <si>
-    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=M%2BnmZ8pIlcUGYo4Z%2BvOAtg%3D%3D&amp;pudate=jmdtXdlIZFOHtHP%2BJM5ucw%3D%3D&amp;appuid=KnzdxHjvxB26KwW%2FTmL1oA%3D%3D&amp;language=en&amp;country=G0</t>
-  </si>
-  <si>
-    <t>https://proview.dhl.com/proview/adhocnotify?id=uEz%2FYAqQ8bpP7CYg%2FDm58mKP3ihCYJR8nQDfikb0a7A%3D&amp;appuid=eKucCecihGrqe7yDN5ggag%3D%3D&amp;locale=en_G0&amp;token=50y4Ujw9soFaylIomBtRtLA0V4qA124LF2O22zX5298%3D</t>
-  </si>
-  <si>
-    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=zf3QPvxwRGnP2AX1Rb9LzA%3D%3D&amp;pudate=PKPJ7wgzJ0MdZ%2FrRqZmSEA%3D%3D&amp;appuid=eRSsbPCllgit6UpavG%2FADQ%3D%3D&amp;language=en&amp;country=G0</t>
-  </si>
-  <si>
-    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=9NcH2PeCClxWIO1Nlget8A%3D%3D&amp;pudate=FsxVoZT5VPZ99o32lSlKHQ%3D%3D&amp;appuid=AZa86jbXfju1Cr1SzYbpnQ%3D%3D&amp;language=en&amp;country=G0</t>
-  </si>
-  <si>
-    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=ovDJybc00bw0WExOOsWqyA%3D%3D&amp;pudate=rwi3vE7KAubYg6YXFIoaIw%3D%3D&amp;appuid=4uxzEHD3Y72iSgbEfrsnpg%3D%3D&amp;language=en&amp;country=G0</t>
-  </si>
-  <si>
-    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=JTz2qESzYNp1BZyF%2BKGl4Q%3D%3D&amp;pudate=8Kme8QHp4PRzMlTBAkenoQ%3D%3D&amp;appuid=C9amzxhvz74JB39hw2ifPw%3D%3D&amp;language=en&amp;country=G0</t>
-  </si>
-  <si>
-    <t>https://proview.dhl.com/proview/adhocnotify?id=PDcYegarj%2B%2BNwHX%2F3rchyBj7miVf7XvNijm60OaJOiI%3D&amp;appuid=2MAcjT9XkyJnACI%2F1o2NQg%3D%3D&amp;locale=en_G0&amp;token=w6%2BVm65S2K2BR9hM99hENbA0V4qA124LF2O22zX5298%3D</t>
-  </si>
-  <si>
-    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=uTALmgmd4rxEdlI2OGVdmQ%3D%3D&amp;pudate=2kxru1CIdj8roIwGuLEK%2Bw%3D%3D&amp;appuid=7PizZCA2nRbzuwrn5UbvDQ%3D%3D&amp;language=en&amp;country=G0</t>
-  </si>
-  <si>
-    <t>https://proview.dhl.com/proview/adhocnotify?id=Cdsn3eUwWFaazzw2R9WHGJFIIeeuSJqyq5s8AKmHCQk%3D&amp;appuid=bWHYJ5ooMqc53W1Pqu2aew%3D%3D&amp;locale=en_G0&amp;token=FwpAR4MKPJxmEFo4MuMHTbA0V4qA124LF2O22zX5298%3D</t>
+    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=97WzUTqDw1rCszTa3EpiIA%3D%3D&amp;pudate=gHffNet%2FDB2ehL%2FRhBeygQ%3D%3D&amp;appuid=ilANjOQ3Wimil8UwR3D%2BSQ%3D%3D&amp;language=en&amp;country=G0</t>
+  </si>
+  <si>
+    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=vT95CkRUTdB0pyqLKhb4GQ%3D%3D&amp;pudate=noUrH6EPBu%2FxFNF0OHPChQ%3D%3D&amp;appuid=EBy5mwslBZAD50Vm5FsI%2BA%3D%3D&amp;language=en&amp;country=G0</t>
+  </si>
+  <si>
+    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=37cpZkajHXUCXV6VmcGdbw%3D%3D&amp;pudate=S4l1LVbp3VBRVyoUzSMNOw%3D%3D&amp;appuid=ACPRh4mB7w3jcWMvu0oUgQ%3D%3D&amp;language=en&amp;country=G0</t>
+  </si>
+  <si>
+    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=g71b9yCyKQkNEdLHuoWlkw%3D%3D&amp;pudate=xBVYdOj3uOvAgkSQg360mA%3D%3D&amp;appuid=t7aofI9IIkYNrtexiSKE%2Bw%3D%3D&amp;language=en&amp;country=G0</t>
+  </si>
+  <si>
+    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=QMtVu8jMN%2BhpIeDLc2cqcA%3D%3D&amp;pudate=Mhl%2BTZ8170Zl7xy%2FGuMnTA%3D%3D&amp;appuid=nsljOQJrLrxnEtpUTxj%2Flg%3D%3D&amp;language=en&amp;country=G0</t>
+  </si>
+  <si>
+    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=jWqbDOjtk42y1dv2YoN7mQ%3D%3D&amp;pudate=JR09LgjrmoX7a6ZwOZ4CwQ%3D%3D&amp;appuid=shthlbZPbvYI%2FdQGDTgSvQ%3D%3D&amp;language=en&amp;country=G0</t>
+  </si>
+  <si>
+    <t>https://proview.dhl.com/proview/adhocnotify?id=yZfEIDJKNYtcMGMld2yYMGKP3ihCYJR8nQDfikb0a7A%3D&amp;appuid=9QqMdM6MWKXM4jwpo8GxnQ%3D%3D&amp;locale=en_G0&amp;token=08tJFvlBp10WaE3r3g5YbLA0V4qA124LF2O22zX5298%3D</t>
+  </si>
+  <si>
+    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=MSFuspSz2y2cAC7Xed1cwg%3D%3D&amp;pudate=G4o6NVlrOy5ruKUhLCvrCg%3D%3D&amp;appuid=N9MCQm9WLvOY%2BxwbH%2FJOlw%3D%3D&amp;language=en&amp;country=G0</t>
+  </si>
+  <si>
+    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=8PxUzBsA1wPrvE%2BJvXL2UA%3D%3D&amp;pudate=cQRPuB8X7qZufaA%2FO4bU1A%3D%3D&amp;appuid=4Fn57BMkLnPpyTGbtY0Ceg%3D%3D&amp;language=en&amp;country=G0</t>
+  </si>
+  <si>
+    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=qCVHJsP2FXndnhsOcRn66Q%3D%3D&amp;pudate=LmZrrko7%2BAndyAl4SexX2Q%3D%3D&amp;appuid=aG%2FVBw6idMxSqomyfqf9tQ%3D%3D&amp;language=en&amp;country=G0</t>
+  </si>
+  <si>
+    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=ZkXAco3V48xg6VaQkGpi4A%3D%3D&amp;pudate=GF8M7J7qcOCD9%2F%2FX8nIjfA%3D%3D&amp;appuid=5A9JT72A2gezYbkQTXDTzg%3D%3D&amp;language=en&amp;country=G0</t>
+  </si>
+  <si>
+    <t>https://proview.dhl.com/proview/adhocnotify?id=91f%2FV4EW0G28tKVpE2Serhj7miVf7XvNijm60OaJOiI%3D&amp;appuid=D9I00Oeun14U%2FEKaVwTczA%3D%3D&amp;locale=en_G0&amp;token=EV2kvA3HOB%2BayorCbhVFFbA0V4qA124LF2O22zX5298%3D</t>
+  </si>
+  <si>
+    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=E%2FSJBKt1RxGlKvLA37ugww%3D%3D&amp;pudate=ldgygjthfJKrjFrUgBhVKA%3D%3D&amp;appuid=25O9rAMEjpjxiT9wlC7ptQ%3D%3D&amp;language=en&amp;country=G0</t>
+  </si>
+  <si>
+    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=R39BedKa0H0tTk4FdlxpXQ%3D%3D&amp;pudate=DU5N23vgeI1KPDtXlSePuA%3D%3D&amp;appuid=U1h%2B5TpSFwojwdak8aSzhA%3D%3D&amp;language=en&amp;country=G0</t>
+  </si>
+  <si>
+    <t>https://webpod.dhl.com/webPOD/DHLePODRequest?hwb=LhzKNixcSoAZTXtlMDVWUQ%3D%3D&amp;pudate=qz%2BWqY9lbhTzgNDtAQl1RA%3D%3D&amp;appuid=MSlpfXkr8RvzrxHLSHKjAQ%3D%3D&amp;language=en&amp;country=G0</t>
+  </si>
+  <si>
+    <t>https://proview.dhl.com/proview/adhocnotify?id=KaL1RFBETLJ1GSHxQBA%2BYZFIIeeuSJqyq5s8AKmHCQk%3D&amp;appuid=oiRzCoYFYJAXQO5EnEPA6Q%3D%3D&amp;locale=en_G0&amp;token=3bS1DyyZGc8DlJN8dq4RdrA0V4qA124LF2O22zX5298%3D</t>
   </si>
   <si>
     <t>Delivery has been rescheduled for a future date</t>
@@ -762,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -859,25 +889,25 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -886,34 +916,34 @@
         <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="U2" t="b">
         <v>0</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -927,25 +957,25 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -954,34 +984,34 @@
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Q3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="U3" t="b">
         <v>0</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -995,25 +1025,25 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1022,34 +1052,34 @@
         <v>5</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="U4" t="b">
         <v>0</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -1063,25 +1093,25 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1090,34 +1120,34 @@
         <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="U5" t="b">
         <v>0</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -1131,25 +1161,25 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1158,34 +1188,34 @@
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="U6" t="b">
         <v>0</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1199,25 +1229,25 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1226,34 +1256,34 @@
         <v>9</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="U7" t="b">
         <v>0</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1267,25 +1297,25 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1294,34 +1324,34 @@
         <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="U8" t="b">
         <v>0</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1335,25 +1365,25 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1362,34 +1392,34 @@
         <v>5</v>
       </c>
       <c r="M9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1403,25 +1433,25 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1430,34 +1460,34 @@
         <v>5</v>
       </c>
       <c r="M10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" t="s">
         <v>69</v>
       </c>
-      <c r="N10" t="s">
-        <v>72</v>
-      </c>
-      <c r="O10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P10" t="s">
-        <v>65</v>
-      </c>
       <c r="Q10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="U10" t="b">
         <v>0</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1471,25 +1501,25 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1498,34 +1528,34 @@
         <v>5</v>
       </c>
       <c r="M11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Q11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="U11" t="b">
         <v>0</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1539,25 +1569,25 @@
         <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1566,34 +1596,34 @@
         <v>5</v>
       </c>
       <c r="M12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Q12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="U12" t="b">
         <v>0</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -1607,25 +1637,25 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1634,40 +1664,40 @@
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O13" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="U13" t="b">
         <v>0</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="X13" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -1681,25 +1711,25 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1708,34 +1738,34 @@
         <v>5</v>
       </c>
       <c r="M14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="U14" t="b">
         <v>0</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -1749,25 +1779,25 @@
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1776,40 +1806,176 @@
         <v>5</v>
       </c>
       <c r="M15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N15" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="O15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q15" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R15" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="U15" t="b">
         <v>0</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="X15" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>125</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>73</v>
+      </c>
+      <c r="R16" t="s">
+        <v>74</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="U16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17" t="s">
+        <v>76</v>
+      </c>
+      <c r="N17" t="s">
+        <v>78</v>
+      </c>
+      <c r="O17" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>73</v>
+      </c>
+      <c r="R17" t="s">
+        <v>99</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U17" t="b">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="X17" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1856,6 +2022,12 @@
     <hyperlink ref="T15" r:id="rId40"/>
     <hyperlink ref="V15" r:id="rId41"/>
     <hyperlink ref="W15" r:id="rId42"/>
+    <hyperlink ref="T16" r:id="rId43"/>
+    <hyperlink ref="V16" r:id="rId44"/>
+    <hyperlink ref="W16" r:id="rId45"/>
+    <hyperlink ref="T17" r:id="rId46"/>
+    <hyperlink ref="V17" r:id="rId47"/>
+    <hyperlink ref="W17" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
